--- a/public/import/掌数_知料_知识库信息导入.xlsx
+++ b/public/import/掌数_知料_知识库信息导入.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10213"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuhanchu/Project/dataknown/z_know_info_web/public/import/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0360E07C-F28B-C04E-80AA-22CE3E7B6B78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -18,139 +12,32 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$B$1:$K$3785</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>标准问</t>
+  </si>
+  <si>
+    <t>分组</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
     <t>答案</t>
   </si>
   <si>
     <t>扩展问</t>
   </si>
   <si>
-    <t>桌面云打不开的答案</t>
-  </si>
-  <si>
-    <t>打不开桌面云</t>
-  </si>
-  <si>
-    <t>桌面云打不开了</t>
-  </si>
-  <si>
-    <t>桌面云怎么打不开了</t>
-  </si>
-  <si>
-    <t>要怎么打开桌面云</t>
-  </si>
-  <si>
-    <t>为啥打不开桌面云</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>比如：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>桌面云打不开</t>
-    </r>
-  </si>
-  <si>
-    <t>标准问</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">规则：
-1.长度为1-512
-2.至少包含数字，英文字母，中文其中一种
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3.不能同时包含非法字符"&lt;"，"&gt;"（如ab&lt;cd&gt;e）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-4.不能和本文件中的其他标准问或扩展问重复
-5.同一个问题最多支持200个扩展问，直接行后扩展</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下面的数据是例子，正式数据请从第5行进行录入。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>可以根据功能模块或者使用场景来分组
-规则：
-1.长度为1-64
-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.不能同时包含非法字符"&lt;"，"&gt;"（如ab&lt;cd&gt;e）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bug|登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-配置当前问题的标签信息，这部分可自由填写，在管理界面可用来过滤。
-规则：
-1.长度为1-64
-2.多个标签使用 | 分隔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>当前数据的编号，新增的数据放空。</t>
   </si>
   <si>
     <r>
@@ -158,7 +45,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体 (正文)"/>
-        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>必填*</t>
@@ -168,7 +54,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -182,7 +68,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>3.不能同时包含非法字符"&lt;"，"&gt;"（如ab&lt;cd&gt;e）</t>
@@ -192,16 +78,54 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 4.不能和本文件中的其他标准问或扩展问重复</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可以根据功能模块或者使用场景来分组
+规则：
+1.长度为1-64
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.不能同时包含非法字符"&lt;"，"&gt;"（如ab&lt;cd&gt;e）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+配置当前问题的标签信息，这部分可自由填写，在管理界面可用来过滤。
+规则：
+1.长度为1-64
+2.多个标签使用 | 分隔</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
@@ -219,62 +143,274 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 规则：
 长度为1-32767</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前数据的编号，新增的数据放空。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">规则：
+1.长度为1-512
+2.至少包含数字，英文字母，中文其中一种
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.不能同时包含非法字符"&lt;"，"&gt;"（如ab&lt;cd&gt;e）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4.不能和本文件中的其他标准问或扩展问重复
+5.同一个问题最多支持200个扩展问，直接行后扩展</t>
+    </r>
+  </si>
+  <si>
+    <t>下面的数据是例子，正式数据请从第5行进行录入。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>比如：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>桌面云打不开</t>
+    </r>
+  </si>
+  <si>
+    <t>使用</t>
+  </si>
+  <si>
+    <t>bug|登录</t>
+  </si>
+  <si>
+    <t>桌面云打不开的答案</t>
+  </si>
+  <si>
+    <t>打不开桌面云</t>
+  </si>
+  <si>
+    <t>桌面云打不开了</t>
+  </si>
+  <si>
+    <t>桌面云怎么打不开了</t>
+  </si>
+  <si>
+    <t>要怎么打开桌面云</t>
+  </si>
+  <si>
+    <t>为啥打不开桌面云</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体 (正文)"/>
-      <family val="1"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -284,8 +420,21 @@
       <name val="宋体 (正文)"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,8 +447,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -307,34 +642,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -383,7 +1004,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -418,7 +1039,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -592,128 +1213,125 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J3785"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="3" width="47.33203125" customWidth="1"/>
-    <col min="4" max="4" width="41.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.6666666666667" customWidth="1"/>
+    <col min="2" max="3" width="47.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="41.1666666666667" customWidth="1"/>
     <col min="5" max="5" width="27.5" customWidth="1"/>
-    <col min="6" max="6" width="44.6640625" customWidth="1"/>
+    <col min="6" max="6" width="44.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22.3333333333333" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="108" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:10">
+      <c r="A4" s="1">
+        <v>3134</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="120">
-      <c r="A2" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" s="4" customFormat="1">
-      <c r="A4" s="4">
-        <v>3134</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3732" spans="6:6">
-      <c r="F3732" s="1"/>
+      <c r="F3732" s="2"/>
     </row>
-    <row r="3784" spans="5:5" ht="71.25" customHeight="1"/>
+    <row r="3784" ht="71.25" customHeight="1"/>
     <row r="3785" spans="5:5">
-      <c r="E3785" s="1"/>
+      <c r="E3785" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:K3785" xr:uid="{F6C12213-EC20-4940-840F-2C01AF96A0DD}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <autoFilter ref="B1:K3785">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/public/import/掌数_知料_知识库信息导入.xlsx
+++ b/public/import/掌数_知料_知识库信息导入.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>编号</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>标签</t>
+  </si>
+  <si>
+    <t>全局变量</t>
   </si>
   <si>
     <t>答案</t>
@@ -118,6 +121,11 @@
 2.多个标签使用 | 分隔</t>
   </si>
   <si>
+    <t xml:space="preserve">
+规则：
+长度为1-32767</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -225,30 +233,18 @@
   <si>
     <t>打不开桌面云</t>
   </si>
-  <si>
-    <t>桌面云打不开了</t>
-  </si>
-  <si>
-    <t>桌面云怎么打不开了</t>
-  </si>
-  <si>
-    <t>要怎么打开桌面云</t>
-  </si>
-  <si>
-    <t>为啥打不开桌面云</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -258,16 +254,152 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -279,142 +411,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体 (正文)"/>
@@ -427,12 +423,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体 (正文)"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -449,31 +439,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,151 +613,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,15 +630,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -676,6 +657,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -691,13 +683,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,172 +722,169 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1219,13 +1212,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3785"/>
+  <dimension ref="A1:G3785"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17.6666666666667" customWidth="1"/>
     <col min="2" max="3" width="47.3333333333333" customWidth="1"/>
@@ -1238,7 +1231,7 @@
     <col min="10" max="10" width="19.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1257,66 +1250,64 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" ht="108" spans="1:6">
+    <row r="2" ht="135" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:10">
+    <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="1">
         <v>3134</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E4" s="1">
+        <v>111</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3732" spans="6:6">

--- a/public/import/掌数_知料_知识库信息导入.xlsx
+++ b/public/import/掌数_知料_知识库信息导入.xlsx
@@ -17,10 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>编号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>标准问</t>
   </si>
@@ -38,9 +35,6 @@
   </si>
   <si>
     <t>扩展问</t>
-  </si>
-  <si>
-    <t>当前数据的编号，新增的数据放空。</t>
   </si>
   <si>
     <r>
@@ -197,9 +191,6 @@
     </r>
   </si>
   <si>
-    <t>下面的数据是例子，正式数据请从第5行进行录入。</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -239,10 +230,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -261,6 +252,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -274,92 +272,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,24 +304,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -404,10 +357,48 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -439,19 +430,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,19 +586,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,139 +604,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,16 +625,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,16 +684,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,194 +721,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1212,13 +1203,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3785"/>
+  <dimension ref="A1:F3785"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17.6666666666667" customWidth="1"/>
     <col min="2" max="3" width="47.3333333333333" customWidth="1"/>
@@ -1231,7 +1222,7 @@
     <col min="10" max="10" width="19.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1250,72 +1241,60 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" ht="162" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" ht="135" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
-      </c>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
-      <c r="A4" s="1">
-        <v>3134</v>
+    <row r="4" s="1" customFormat="1" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <v>111</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1">
-        <v>111</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3732" spans="6:6">
-      <c r="F3732" s="2"/>
+      <c r="F3732" s="3"/>
     </row>
     <row r="3784" ht="71.25" customHeight="1"/>
     <row r="3785" spans="5:5">
-      <c r="E3785" s="2"/>
+      <c r="E3785" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:K3785">

--- a/public/import/掌数_知料_知识库信息导入.xlsx
+++ b/public/import/掌数_知料_知识库信息导入.xlsx
@@ -17,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>编号</t>
+  </si>
   <si>
     <t>标准问</t>
   </si>
@@ -35,6 +38,12 @@
   </si>
   <si>
     <t>扩展问</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>当前数据的编号，新增的数据放空。</t>
   </si>
   <si>
     <r>
@@ -121,13 +130,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
@@ -143,7 +145,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -155,13 +157,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">规则：
 1.长度为1-512
 2.至少包含数字，英文字母，中文其中一种
@@ -180,7 +175,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -189,6 +184,14 @@
 4.不能和本文件中的其他标准问或扩展问重复
 5.同一个问题最多支持200个扩展问，直接行后扩展</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+规则：
+是一个json字符串</t>
+  </si>
+  <si>
+    <t>下面的数据是例子，正式数据请从第5行进行录入。</t>
   </si>
   <si>
     <r>
@@ -224,16 +227,19 @@
   <si>
     <t>打不开桌面云</t>
   </si>
+  <si>
+    <t>{"product":"基金清算","second_type":"常见问题"}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -252,14 +258,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,20 +319,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,6 +342,44 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,99 +394,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,49 +436,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,133 +616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,6 +627,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -654,35 +684,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -707,178 +708,186 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1203,13 +1212,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3785"/>
+  <dimension ref="A1:H3785"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="17.6666666666667" customWidth="1"/>
     <col min="2" max="3" width="47.3333333333333" customWidth="1"/>
@@ -1217,12 +1226,12 @@
     <col min="5" max="5" width="27.5" customWidth="1"/>
     <col min="6" max="6" width="44.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="22.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="45.575" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="19.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1241,60 +1250,81 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="162" spans="1:6">
+    <row r="2" ht="135" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+    <row r="3" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
+    <row r="4" s="1" customFormat="1" spans="1:8">
+      <c r="A4" s="1">
+        <v>3134</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1">
         <v>111</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3732" spans="6:6">
-      <c r="F3732" s="3"/>
+      <c r="F3732" s="2"/>
     </row>
     <row r="3784" ht="71.25" customHeight="1"/>
     <row r="3785" spans="5:5">
-      <c r="E3785" s="3"/>
+      <c r="E3785" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:K3785">

--- a/public/import/掌数_知料_知识库信息导入.xlsx
+++ b/public/import/掌数_知料_知识库信息导入.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <t>扩展问</t>
   </si>
   <si>
-    <t>其他</t>
+    <t>属性说明</t>
   </si>
   <si>
     <t>当前数据的编号，新增的数据放空。</t>
@@ -130,6 +130,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
@@ -157,6 +164,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">规则：
 1.长度为1-512
 2.至少包含数字，英文字母，中文其中一种
@@ -236,9 +250,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -257,6 +271,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -265,29 +295,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,55 +346,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,8 +376,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,37 +394,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,187 +450,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,6 +641,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -648,8 +671,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,6 +692,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -680,6 +712,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,184 +741,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -885,9 +899,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1214,8 +1225,8 @@
   <sheetPr/>
   <dimension ref="A1:H3785"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1279,19 +1290,19 @@
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:8">
       <c r="A4" s="1">

--- a/public/import/掌数_知料_知识库信息导入.xlsx
+++ b/public/import/掌数_知料_知识库信息导入.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>编号</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>属性说明</t>
+  </si>
+  <si>
+    <t>图片</t>
   </si>
   <si>
     <t>当前数据的编号，新增的数据放空。</t>
@@ -205,6 +208,9 @@
 是一个json字符串</t>
   </si>
   <si>
+    <t>内容中的图片，使用嵌入式的单元格插入图片</t>
+  </si>
+  <si>
     <t>下面的数据是例子，正式数据请从第5行进行录入。</t>
   </si>
   <si>
@@ -251,8 +257,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -271,70 +277,116 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -347,69 +399,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,18 +456,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -474,31 +606,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,19 +618,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,103 +636,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,39 +647,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -695,8 +668,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,11 +706,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,151 +736,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1223,13 +1229,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3785"/>
+  <dimension ref="A1:I3785"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.6666666666667" customWidth="1"/>
     <col min="2" max="3" width="47.3333333333333" customWidth="1"/>
@@ -1239,10 +1245,10 @@
     <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="45.575" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="19.8333333333333" customWidth="1"/>
+    <col min="10" max="10" width="39.325" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1267,36 +1273,42 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" ht="135" spans="1:8">
+    <row r="2" ht="135" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1309,25 +1321,25 @@
         <v>3134</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1">
         <v>111</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3732" spans="6:6">

--- a/public/import/掌数_知料_知识库信息导入.xlsx
+++ b/public/import/掌数_知料_知识库信息导入.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
 2.多个标签使用 | 分隔</t>
   </si>
   <si>
-    <t xml:space="preserve">
+    <t>对话机器人匹配的预留字段
 规则：
 长度为1-32767</t>
   </si>
@@ -167,13 +167,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">规则：
 1.长度为1-512
 2.至少包含数字，英文字母，中文其中一种
@@ -199,7 +192,7 @@
       </rPr>
       <t xml:space="preserve">
 4.不能和本文件中的其他标准问或扩展问重复
-5.同一个问题最多支持200个扩展问，直接行后扩展</t>
+5.每行表示一个扩展问</t>
     </r>
   </si>
   <si>
@@ -256,10 +249,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -277,6 +270,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -285,82 +352,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,47 +406,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,187 +449,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,6 +640,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -665,15 +673,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -685,6 +684,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,32 +715,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,151 +731,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1231,8 +1224,8 @@
   <sheetPr/>
   <dimension ref="A1:I3785"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
@@ -1277,7 +1270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="135" spans="1:9">
+    <row r="2" ht="121.5" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>

--- a/public/import/掌数_知料_知识库信息导入.xlsx
+++ b/public/import/掌数_知料_知识库信息导入.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t>编号</t>
+    <t>外部编号</t>
   </si>
   <si>
     <t>标准问</t>
@@ -46,7 +46,7 @@
     <t>图片</t>
   </si>
   <si>
-    <t>当前数据的编号，新增的数据放空。</t>
+    <t>当前数据的外部编号，新增的数据放空。</t>
   </si>
   <si>
     <r>
@@ -167,6 +167,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">规则：
 1.长度为1-512
 2.至少包含数字，英文字母，中文其中一种
@@ -249,10 +256,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -271,51 +278,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,52 +375,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -392,22 +392,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,6 +409,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,25 +456,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,25 +594,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,121 +630,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,21 +647,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -669,30 +661,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,8 +683,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,160 +747,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1224,8 +1231,8 @@
   <sheetPr/>
   <dimension ref="A1:I3785"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>

--- a/public/import/掌数_知料_知识库信息导入.xlsx
+++ b/public/import/掌数_知料_知识库信息导入.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>外部编号</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>扩展问</t>
+  </si>
+  <si>
+    <t>推荐问</t>
   </si>
   <si>
     <t>属性说明</t>
@@ -203,6 +206,36 @@
     </r>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">规则：
+1.长度为1-512
+2.至少包含数字，英文字母，中文其中一种
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.不能同时包含非法字符"&lt;"，"&gt;"（如ab&lt;cd&gt;e）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4.不能和本文件中的其他标准问或扩展问重复
+5.每行表示一个推荐问</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">
 规则：
 是一个json字符串</t>
@@ -246,6 +279,9 @@
   </si>
   <si>
     <t>打不开桌面云</t>
+  </si>
+  <si>
+    <t>打不开桌面云怎么办</t>
   </si>
   <si>
     <t>{"product":"基金清算","second_type":"常见问题"}</t>
@@ -256,10 +292,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -278,6 +314,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -285,51 +358,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,9 +418,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,17 +435,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -375,54 +457,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,19 +492,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,67 +636,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,91 +672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,6 +683,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -661,6 +712,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,42 +742,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,159 +768,166 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1229,10 +1265,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3785"/>
+  <dimension ref="A1:J3785"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
@@ -1248,7 +1284,7 @@
     <col min="10" max="10" width="39.325" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1276,39 +1312,45 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" ht="121.5" spans="1:9">
+    <row r="2" ht="121.5" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1316,30 +1358,33 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:8">
+    <row r="4" s="1" customFormat="1" spans="1:9">
       <c r="A4" s="1">
         <v>3134</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1">
         <v>111</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3732" spans="6:6">
